--- a/generated_output/temp/us-core-procedure.xlsx
+++ b/generated_output/temp/us-core-procedure.xlsx
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Procedure.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>Procedure.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -228,7 +228,7 @@
     <t>Procedure.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -260,7 +260,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -286,7 +286,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -312,7 +312,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -347,7 +347,7 @@
     <t>Procedure.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -378,7 +378,7 @@
     <t>Procedure.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/PlanDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/ActivityDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Measure], CanonicalType[http://hl7.org/fhir/StructureDefinition/OperationDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Questionnaire]]}
+    <t xml:space="preserve">canonical(PlanDefinition|ActivityDefinition|Measure|OperationDefinition|Questionnaire)
 </t>
   </si>
   <si>
@@ -416,7 +416,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/ServiceRequest]]}
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
 </t>
   </si>
   <si>
@@ -439,7 +439,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Procedure], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationAdministration]]}
+    <t xml:space="preserve">Reference(Procedure|Observation|MedicationAdministration)
 </t>
   </si>
   <si>
@@ -493,7 +493,7 @@
 Cancelled Reason</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -586,7 +586,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -611,7 +611,7 @@
     <t>Procedure.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -639,8 +639,8 @@
     <t>Procedure.performed[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>When the procedure was performed</t>
@@ -667,7 +667,7 @@
     <t>Procedure.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole]]}
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>Procedure.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -724,7 +724,7 @@
     <t>Procedure.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -796,7 +796,7 @@
     <t>Procedure.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson], CanonicalType[http://hl7.org/fhir/StructureDefinition/Device]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
 </t>
   </si>
   <si>
@@ -824,7 +824,7 @@
     <t>Procedure.performer.onBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -843,7 +843,7 @@
     <t>Procedure.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -892,7 +892,7 @@
     <t>Procedure.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation], CanonicalType[http://hl7.org/fhir/StructureDefinition/Procedure], CanonicalType[http://hl7.org/fhir/StructureDefinition/DiagnosticReport], CanonicalType[http://hl7.org/fhir/StructureDefinition/DocumentReference]]}
+    <t xml:space="preserve">Reference(Condition|Observation|Procedure|DiagnosticReport|DocumentReference)
 </t>
   </si>
   <si>
@@ -957,7 +957,7 @@
     <t>Procedure.report</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/DiagnosticReport], CanonicalType[http://hl7.org/fhir/StructureDefinition/DocumentReference], CanonicalType[http://hl7.org/fhir/StructureDefinition/Composition]]}
+    <t xml:space="preserve">Reference(DiagnosticReport|DocumentReference|Composition)
 </t>
   </si>
   <si>
@@ -997,7 +997,7 @@
     <t>Procedure.complicationDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition]]}
+    <t xml:space="preserve">Reference(Condition)
 </t>
   </si>
   <si>
@@ -1031,7 +1031,7 @@
     <t>Procedure.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1092,7 +1092,7 @@
     <t>Procedure.focalDevice.manipulated</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device]]}
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1108,7 +1108,7 @@
     <t>Procedure.usedReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device], CanonicalType[http://hl7.org/fhir/StructureDefinition/Medication], CanonicalType[http://hl7.org/fhir/StructureDefinition/Substance]]}
+    <t xml:space="preserve">Reference(Device|Medication|Substance)
 </t>
   </si>
   <si>
@@ -1196,67 +1196,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
